--- a/app/src/main/resources/cogmento_contacts.xlsx
+++ b/app/src/main/resources/cogmento_contacts.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="89">
   <si>
     <t>id</t>
   </si>
@@ -75,9 +75,6 @@
     <t>bbernardeau0@themeforest.net</t>
   </si>
   <si>
-    <t>In sagittis dui vel nisl. Duis ac nibh. Fusce lacus purus, aliquet at, feugiat non, pretium quis, lectus.</t>
-  </si>
-  <si>
     <t>Barnett</t>
   </si>
   <si>
@@ -108,10 +105,6 @@
     <t>jsalazar1@thetimes.co.uk</t>
   </si>
   <si>
-    <t>Proin leo odio, porttitor id, consequat in, consequat ut, nulla. Sed accumsan felis. Ut at dolor quis odio consequat varius.
-Integer ac leo. Pellentesque ultrices mattis odio. Donec vitae nisi.</t>
-  </si>
-  <si>
     <t>Anthes</t>
   </si>
   <si>
@@ -136,10 +129,6 @@
     <t>rrivalant2@meetup.com</t>
   </si>
   <si>
-    <t>Duis bibendum. Morbi non quam nec dui luctus rutrum. Nulla tellus.
-In sagittis dui vel nisl. Duis ac nibh. Fusce lacus purus, aliquet at, feugiat non, pretium quis, lectus.</t>
-  </si>
-  <si>
     <t>6th</t>
   </si>
   <si>
@@ -164,11 +153,6 @@
     <t>yseeking3@networkadvertising.org</t>
   </si>
   <si>
-    <t>Quisque porta volutpat erat. Quisque erat eros, viverra eget, congue eget, semper rutrum, nulla. Nunc purus.
-Phasellus in felis. Donec semper sapien a libero. Nam dui.
-Proin leo odio, porttitor id, consequat in, consequat ut, nulla. Sed accumsan felis. Ut at dolor quis odio consequat varius.</t>
-  </si>
-  <si>
     <t>Arrowood</t>
   </si>
   <si>
@@ -187,13 +171,6 @@
     <t>Oyoloo</t>
   </si>
   <si>
-    <t>ablaschek4@homestead.com</t>
-  </si>
-  <si>
-    <t>Duis bibendum, felis sed interdum venenatis, turpis enim blandit mi, in porttitor pede justo eu massa. Donec dapibus. Duis at velit eu est congue elementum.
-In hac habitasse platea dictumst. Morbi vestibulum, velit id pretium iaculis, diam erat fermentum justo, nec condimentum neque sapien placerat ante. Nulla justo.</t>
-  </si>
-  <si>
     <t>Santa Luzia</t>
   </si>
   <si>
@@ -212,14 +189,6 @@
     <t>Youfeed</t>
   </si>
   <si>
-    <t>mcowthard5@toplist.cz</t>
-  </si>
-  <si>
-    <t>Curabitur gravida nisi at nibh. In hac habitasse platea dictumst. Aliquam augue quam, sollicitudin vitae, consectetuer eget, rutrum at, lorem.
-Integer tincidunt ante vel ipsum. Praesent blandit lacinia erat. Vestibulum sed magna at nunc commodo placerat.
-Praesent blandit. Nam nulla. Integer pede justo, lacinia eget, tincidunt eget, tempus vel, pede.</t>
-  </si>
-  <si>
     <t>Bluejay</t>
   </si>
   <si>
@@ -235,13 +204,6 @@
     <t>Blogtags</t>
   </si>
   <si>
-    <t>mmcaree6@reddit.com</t>
-  </si>
-  <si>
-    <t>Fusce posuere felis sed lacus. Morbi sem mauris, laoreet ut, rhoncus aliquet, pulvinar sed, nisl. Nunc rhoncus dui vel sem.
-Sed sagittis. Nam congue, risus semper porta volutpat, quam pede lobortis ligula, sit amet eleifend pede libero quis orci. Nullam molestie nibh in lectus.</t>
-  </si>
-  <si>
     <t>Gateway</t>
   </si>
   <si>
@@ -254,12 +216,6 @@
     <t>Blogpad</t>
   </si>
   <si>
-    <t>mkuzma7@phpbb.com</t>
-  </si>
-  <si>
-    <t>Vestibulum quam sapien, varius ut, blandit non, interdum in, ante. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Duis faucibus accumsan odio. Curabitur convallis.</t>
-  </si>
-  <si>
     <t>Gerald</t>
   </si>
   <si>
@@ -272,13 +228,6 @@
     <t>Aimbo</t>
   </si>
   <si>
-    <t>alansdale8@facebook.com</t>
-  </si>
-  <si>
-    <t>In hac habitasse platea dictumst. Etiam faucibus cursus urna. Ut tellus.
-Nulla ut erat id mauris vulputate elementum. Nullam varius. Nulla facilisi.</t>
-  </si>
-  <si>
     <t>Manufacturers</t>
   </si>
   <si>
@@ -303,10 +252,6 @@
     <t>rhabbergham9@foxnews.com</t>
   </si>
   <si>
-    <t>Aenean fermentum. Donec ut mauris eget massa tempor convallis. Nulla neque libero, convallis eget, eleifend luctus, ultricies eu, nibh.
-Quisque id justo sit amet sapien dignissim vestibulum. Vestibulum ante ipsum primis in faucibus orci luctus et ultrices posuere cubilia Curae; Nulla dapibus dolor vel est. Donec odio justo, sollicitudin ut, suscipit a, feugiat et, eros.</t>
-  </si>
-  <si>
     <t>Towne</t>
   </si>
   <si>
@@ -338,6 +283,9 @@
   </si>
   <si>
     <t>4-8-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In sagittis dui vel nisl. </t>
   </si>
 </sst>
 </file>
@@ -656,8 +604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" zoomScaleNormal="100" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -666,8 +614,8 @@
     <col min="2" max="2" width="11.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="346.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.25" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="10.75" bestFit="1" customWidth="1"/>
@@ -738,31 +686,31 @@
         <v>17</v>
       </c>
       <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
       </c>
       <c r="L2">
         <v>1734377588</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -770,43 +718,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>32</v>
-      </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L3">
         <v>5652090231</v>
       </c>
       <c r="M3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -814,43 +762,43 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L4">
         <v>7742750693</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -858,43 +806,43 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
         <v>43</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G5" t="s">
         <v>44</v>
       </c>
-      <c r="D5" t="s">
+      <c r="H5" t="s">
         <v>45</v>
       </c>
-      <c r="E5" t="s">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H5" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L5">
         <v>5723999277</v>
       </c>
       <c r="M5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -902,43 +850,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>51</v>
       </c>
-      <c r="C6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>57</v>
-      </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L6">
         <v>7446987063</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -946,43 +891,40 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L7">
         <v>8756063870</v>
       </c>
       <c r="M7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -990,43 +932,40 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L8">
         <v>2058015810</v>
       </c>
       <c r="M8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -1034,43 +973,40 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L9">
         <v>1491549063</v>
       </c>
       <c r="M9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -1078,43 +1014,40 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="F10" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="H10" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="L10">
         <v>6941220724</v>
       </c>
       <c r="M10" t="s">
+        <v>72</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -1122,46 +1055,47 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" t="s">
+        <v>75</v>
+      </c>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
         <v>88</v>
       </c>
-      <c r="D11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" t="s">
-        <v>91</v>
-      </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>21</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>22</v>
-      </c>
-      <c r="K11" t="s">
-        <v>23</v>
       </c>
       <c r="L11">
         <v>8311103408</v>
       </c>
       <c r="M11" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>